--- a/strategy/2024-04-03.xlsx
+++ b/strategy/2024-04-03.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -873,7 +873,7 @@
         <v>45385.7083217593</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>54.2</v>
+        <v>51</v>
       </c>
       <c r="H19" s="1" t="n">
         <f aca="false">$H$3</f>
